--- a/downloads/list2_with_colon_frequency.xlsx
+++ b/downloads/list2_with_colon_frequency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Ticker</t>
   </si>
@@ -28,31 +28,34 @@
     <t>TSX:RY</t>
   </si>
   <si>
+    <t>LSE:AZN</t>
+  </si>
+  <si>
+    <t>TSX:ENB</t>
+  </si>
+  <si>
     <t>TSX:CNQ</t>
   </si>
   <si>
-    <t>TSX:ENB</t>
-  </si>
-  <si>
-    <t>LSE:AZN</t>
+    <t>TSX:CP</t>
   </si>
   <si>
     <t>HKSE:00700</t>
   </si>
   <si>
-    <t>TSX:CP</t>
+    <t>HKSE:09988</t>
   </si>
   <si>
     <t>TSX:BN</t>
   </si>
   <si>
+    <t>XKRX:005930</t>
+  </si>
+  <si>
     <t>XSWX:ROG</t>
   </si>
   <si>
-    <t>XKRX:005930</t>
-  </si>
-  <si>
-    <t>HKSE:09988</t>
+    <t>TSX:BNS</t>
   </si>
   <si>
     <t>TSX:SHOP</t>
@@ -61,7 +64,7 @@
     <t>TSX:MFC</t>
   </si>
   <si>
-    <t>TSX:BNS</t>
+    <t>LSE:GLEN</t>
   </si>
   <si>
     <t>XSWX:NESN</t>
@@ -76,637 +79,637 @@
     <t>TSX:BMO</t>
   </si>
   <si>
-    <t>LSE:GLEN</t>
-  </si>
-  <si>
     <t>TSE:6758</t>
   </si>
   <si>
+    <t>TSE:8591</t>
+  </si>
+  <si>
     <t>TSE:8306</t>
   </si>
   <si>
+    <t>TSX:ONEX</t>
+  </si>
+  <si>
+    <t>XPAR:KER</t>
+  </si>
+  <si>
+    <t>LSE:BARC</t>
+  </si>
+  <si>
     <t>TSX:FFH</t>
   </si>
   <si>
-    <t>LSE:BARC</t>
-  </si>
-  <si>
-    <t>XPAR:KER</t>
-  </si>
-  <si>
     <t>TSX:AEM</t>
   </si>
   <si>
+    <t>LSE:ASHM</t>
+  </si>
+  <si>
+    <t>XMAD:TRE</t>
+  </si>
+  <si>
+    <t>TSX:PSK</t>
+  </si>
+  <si>
+    <t>ASX:WHC</t>
+  </si>
+  <si>
+    <t>LSE:RKT</t>
+  </si>
+  <si>
+    <t>TSX:TSU</t>
+  </si>
+  <si>
+    <t>XKRX:000660</t>
+  </si>
+  <si>
+    <t>LSE:AHT</t>
+  </si>
+  <si>
+    <t>HKSE:00001</t>
+  </si>
+  <si>
+    <t>OCSE:NOVO B</t>
+  </si>
+  <si>
+    <t>TSX:CSU</t>
+  </si>
+  <si>
+    <t>TSX:EFN</t>
+  </si>
+  <si>
+    <t>TSX:CM</t>
+  </si>
+  <si>
+    <t>XAMS:HEIO</t>
+  </si>
+  <si>
+    <t>SZSE:300750</t>
+  </si>
+  <si>
+    <t>TSE:6503</t>
+  </si>
+  <si>
+    <t>TSE:7203</t>
+  </si>
+  <si>
+    <t>XTER:SAP</t>
+  </si>
+  <si>
+    <t>XSWX:NOVN</t>
+  </si>
+  <si>
+    <t>TSX:DFY</t>
+  </si>
+  <si>
+    <t>TSE:6501</t>
+  </si>
+  <si>
+    <t>TSE:8766</t>
+  </si>
+  <si>
     <t>XTER:BAYN</t>
   </si>
   <si>
-    <t>TSX:ONEX</t>
-  </si>
-  <si>
-    <t>LSE:ASHM</t>
-  </si>
-  <si>
-    <t>ASX:WHC</t>
-  </si>
-  <si>
-    <t>TSX:PSK</t>
-  </si>
-  <si>
-    <t>LSE:AHT</t>
-  </si>
-  <si>
-    <t>TSX:TSU</t>
-  </si>
-  <si>
-    <t>XMAD:TRE</t>
-  </si>
-  <si>
-    <t>XKRX:000660</t>
-  </si>
-  <si>
-    <t>LSE:RKT</t>
-  </si>
-  <si>
-    <t>HKSE:00001</t>
-  </si>
-  <si>
-    <t>OCSE:NOVO B</t>
-  </si>
-  <si>
-    <t>TSX:CSU</t>
-  </si>
-  <si>
-    <t>TSX:CM</t>
-  </si>
-  <si>
-    <t>XAMS:HEIO</t>
-  </si>
-  <si>
-    <t>XSWX:NOVN</t>
-  </si>
-  <si>
-    <t>TSX:DFY</t>
+    <t>TSX:CNR</t>
+  </si>
+  <si>
+    <t>XPAR:BOL</t>
+  </si>
+  <si>
+    <t>XKRX:012330</t>
+  </si>
+  <si>
+    <t>XKRX:005935</t>
+  </si>
+  <si>
+    <t>LSE:HLMA</t>
+  </si>
+  <si>
+    <t>TSX:EQB</t>
+  </si>
+  <si>
+    <t>TSX:GDI</t>
+  </si>
+  <si>
+    <t>TSX:GSY</t>
+  </si>
+  <si>
+    <t>TSX:KNT</t>
+  </si>
+  <si>
+    <t>TSX:FOM</t>
+  </si>
+  <si>
+    <t>TSXV:ZDC</t>
+  </si>
+  <si>
+    <t>TSX:PIF</t>
+  </si>
+  <si>
+    <t>TSX:PET</t>
+  </si>
+  <si>
+    <t>TSX:NOA</t>
+  </si>
+  <si>
+    <t>LSE:LLOY</t>
+  </si>
+  <si>
+    <t>XMAD:GRF</t>
+  </si>
+  <si>
+    <t>TSXV:RET</t>
+  </si>
+  <si>
+    <t>TSX:IFP</t>
+  </si>
+  <si>
+    <t>XPAR:ALO</t>
+  </si>
+  <si>
+    <t>XTER:IFX</t>
+  </si>
+  <si>
+    <t>TSE:6723</t>
+  </si>
+  <si>
+    <t>XKRX:105560</t>
+  </si>
+  <si>
+    <t>XTER:FME</t>
+  </si>
+  <si>
+    <t>XTER:CON</t>
+  </si>
+  <si>
+    <t>XPAR:BNP</t>
+  </si>
+  <si>
+    <t>TSX:MTY</t>
+  </si>
+  <si>
+    <t>TSX:FSF.TO</t>
+  </si>
+  <si>
+    <t>TSX:WPM</t>
+  </si>
+  <si>
+    <t>LSE:RR.</t>
+  </si>
+  <si>
+    <t>XAMS:AKZA</t>
+  </si>
+  <si>
+    <t>TSX:TWC</t>
+  </si>
+  <si>
+    <t>TSX:BDGI</t>
+  </si>
+  <si>
+    <t>XPAR:SGO</t>
+  </si>
+  <si>
+    <t>XAMS:HEIA</t>
+  </si>
+  <si>
+    <t>TSX:DC.A</t>
+  </si>
+  <si>
+    <t>LSE:IAG</t>
+  </si>
+  <si>
+    <t>XAMS:PHIA</t>
+  </si>
+  <si>
+    <t>XMAD:LDA</t>
+  </si>
+  <si>
+    <t>XAMS:ALLFG</t>
+  </si>
+  <si>
+    <t>XMAD:CASH</t>
+  </si>
+  <si>
+    <t>XSWX:BARN</t>
+  </si>
+  <si>
+    <t>HKSE:09992</t>
+  </si>
+  <si>
+    <t>XMAD:MCM</t>
+  </si>
+  <si>
+    <t>XLIS:SNC</t>
+  </si>
+  <si>
+    <t>TSX:LNR</t>
+  </si>
+  <si>
+    <t>TSX:MX</t>
+  </si>
+  <si>
+    <t>TSX:MRC</t>
+  </si>
+  <si>
+    <t>TSX:ESI</t>
+  </si>
+  <si>
+    <t>XMAD:DIA</t>
+  </si>
+  <si>
+    <t>XMAD:TUB</t>
+  </si>
+  <si>
+    <t>LSE:TLW</t>
+  </si>
+  <si>
+    <t>XMAD:MEL</t>
+  </si>
+  <si>
+    <t>XMAD:REP</t>
+  </si>
+  <si>
+    <t>TSE:7821</t>
+  </si>
+  <si>
+    <t>TSE:7189</t>
+  </si>
+  <si>
+    <t>TSE:1893</t>
+  </si>
+  <si>
+    <t>TSE:8058</t>
+  </si>
+  <si>
+    <t>TSE:8630</t>
+  </si>
+  <si>
+    <t>TSE:9984</t>
+  </si>
+  <si>
+    <t>TSE:6098</t>
+  </si>
+  <si>
+    <t>TSE:3382</t>
+  </si>
+  <si>
+    <t>LSE:CURY</t>
+  </si>
+  <si>
+    <t>OSL:BWO</t>
+  </si>
+  <si>
+    <t>OSL:BWE</t>
+  </si>
+  <si>
+    <t>TSX:RBA</t>
+  </si>
+  <si>
+    <t>TSX:CEU</t>
+  </si>
+  <si>
+    <t>TSX:III</t>
+  </si>
+  <si>
+    <t>LSE:ATYM</t>
+  </si>
+  <si>
+    <t>MIL:DANR</t>
+  </si>
+  <si>
+    <t>XTER:DTG</t>
+  </si>
+  <si>
+    <t>TSX:OR</t>
+  </si>
+  <si>
+    <t>TSX:QSR</t>
+  </si>
+  <si>
+    <t>TSXV:TOI</t>
+  </si>
+  <si>
+    <t>TSX:ATS</t>
+  </si>
+  <si>
+    <t>LSE:REL</t>
+  </si>
+  <si>
+    <t>XAMS:ASML</t>
+  </si>
+  <si>
+    <t>TSX:TIH</t>
+  </si>
+  <si>
+    <t>TSX:TOU</t>
+  </si>
+  <si>
+    <t>XPAR:AI</t>
+  </si>
+  <si>
+    <t>MIL:FBK</t>
+  </si>
+  <si>
+    <t>XTER:ALV</t>
+  </si>
+  <si>
+    <t>OSTO:INVE B</t>
+  </si>
+  <si>
+    <t>TSE:6284</t>
+  </si>
+  <si>
+    <t>LSE:SHEL</t>
+  </si>
+  <si>
+    <t>TSE:9678</t>
+  </si>
+  <si>
+    <t>HKSE:06099</t>
+  </si>
+  <si>
+    <t>HKSE:09618</t>
+  </si>
+  <si>
+    <t>HKSE:02318</t>
+  </si>
+  <si>
+    <t>HKSE:00939</t>
+  </si>
+  <si>
+    <t>TSX:PPL</t>
+  </si>
+  <si>
+    <t>TPE:2383</t>
+  </si>
+  <si>
+    <t>HKSE:03908</t>
+  </si>
+  <si>
+    <t>BOM:541153</t>
+  </si>
+  <si>
+    <t>XAMS:INPST</t>
+  </si>
+  <si>
+    <t>XKRX:084370</t>
+  </si>
+  <si>
+    <t>JSE:WBC</t>
+  </si>
+  <si>
+    <t>BOM:532497</t>
+  </si>
+  <si>
+    <t>TSE:8035</t>
+  </si>
+  <si>
+    <t>TPE:2368</t>
+  </si>
+  <si>
+    <t>XKRX:145020</t>
+  </si>
+  <si>
+    <t>BOM:543333</t>
+  </si>
+  <si>
+    <t>TPE:2308</t>
+  </si>
+  <si>
+    <t>TSE:6701</t>
+  </si>
+  <si>
+    <t>TSE:8002</t>
+  </si>
+  <si>
+    <t>BOM:500696</t>
+  </si>
+  <si>
+    <t>NSE:BHARTIARTL</t>
+  </si>
+  <si>
+    <t>TSX:IAG</t>
+  </si>
+  <si>
+    <t>TSX:ALA</t>
+  </si>
+  <si>
+    <t>BOM:543320</t>
+  </si>
+  <si>
+    <t>TSX:FTT</t>
+  </si>
+  <si>
+    <t>TSX:BIP.UN</t>
+  </si>
+  <si>
+    <t>TSX:MRU</t>
+  </si>
+  <si>
+    <t>TSE:6332</t>
+  </si>
+  <si>
+    <t>TSE:8923</t>
+  </si>
+  <si>
+    <t>TSE:8336</t>
+  </si>
+  <si>
+    <t>TSE:8876</t>
+  </si>
+  <si>
+    <t>TSE:6622</t>
+  </si>
+  <si>
+    <t>TSX:JWEL</t>
+  </si>
+  <si>
+    <t>TSX:CIGI</t>
+  </si>
+  <si>
+    <t>TSX:MEQ</t>
+  </si>
+  <si>
+    <t>TSX:AND</t>
+  </si>
+  <si>
+    <t>TSX:STN</t>
+  </si>
+  <si>
+    <t>TSX:SJ</t>
+  </si>
+  <si>
+    <t>TSX:TVK</t>
+  </si>
+  <si>
+    <t>MIL:AZM</t>
+  </si>
+  <si>
+    <t>XKRX:139130</t>
+  </si>
+  <si>
+    <t>OCSE:ISS</t>
+  </si>
+  <si>
+    <t>MIL:CPR</t>
+  </si>
+  <si>
+    <t>XTER:LXS</t>
+  </si>
+  <si>
+    <t>HKSE:01128</t>
+  </si>
+  <si>
+    <t>TSXV:PNG</t>
+  </si>
+  <si>
+    <t>XTER:DUE</t>
+  </si>
+  <si>
+    <t>XPAR:OR</t>
+  </si>
+  <si>
+    <t>LSE:RMV</t>
+  </si>
+  <si>
+    <t>TSE:5344</t>
+  </si>
+  <si>
+    <t>XKRX:030190</t>
+  </si>
+  <si>
+    <t>XPAR:GTT</t>
+  </si>
+  <si>
+    <t>TSE:4733</t>
+  </si>
+  <si>
+    <t>XTER:EVD</t>
+  </si>
+  <si>
+    <t>LSE:DSCV</t>
+  </si>
+  <si>
+    <t>LSE:AT.</t>
+  </si>
+  <si>
+    <t>TSE:6947</t>
+  </si>
+  <si>
+    <t>TSX:SU</t>
+  </si>
+  <si>
+    <t>TSX:CVE</t>
+  </si>
+  <si>
+    <t>TSX:POW</t>
+  </si>
+  <si>
+    <t>XAMS:JDEP</t>
+  </si>
+  <si>
+    <t>XSWX:BAER</t>
+  </si>
+  <si>
+    <t>XKRX:138930</t>
+  </si>
+  <si>
+    <t>OSL:ATEA</t>
+  </si>
+  <si>
+    <t>TSE:4063</t>
+  </si>
+  <si>
+    <t>TSE:8001</t>
+  </si>
+  <si>
+    <t>XAMS:PRX</t>
+  </si>
+  <si>
+    <t>TSE:7974</t>
+  </si>
+  <si>
+    <t>TSX:CS</t>
+  </si>
+  <si>
+    <t>TSE:8308</t>
+  </si>
+  <si>
+    <t>TSE:8725</t>
+  </si>
+  <si>
+    <t>XTER:BMW</t>
+  </si>
+  <si>
+    <t>XTER:DBK</t>
+  </si>
+  <si>
+    <t>XPAR:SAF</t>
+  </si>
+  <si>
+    <t>SGX:U11</t>
+  </si>
+  <si>
+    <t>XPAR:TTE</t>
+  </si>
+  <si>
+    <t>TSX:NA</t>
+  </si>
+  <si>
+    <t>LSE:BIRG</t>
+  </si>
+  <si>
+    <t>TSE:7270</t>
+  </si>
+  <si>
+    <t>MIL:BZU</t>
+  </si>
+  <si>
+    <t>HKSE:02899</t>
   </si>
   <si>
     <t>HKSE:03968</t>
   </si>
   <si>
-    <t>TSE:8001</t>
-  </si>
-  <si>
-    <t>XTER:SAP</t>
-  </si>
-  <si>
-    <t>TSE:4063</t>
-  </si>
-  <si>
-    <t>TSE:6501</t>
-  </si>
-  <si>
-    <t>TSE:8766</t>
-  </si>
-  <si>
-    <t>TSE:8591</t>
-  </si>
-  <si>
-    <t>TSX:CNR</t>
-  </si>
-  <si>
-    <t>XPAR:BOL</t>
-  </si>
-  <si>
-    <t>XKRX:012330</t>
-  </si>
-  <si>
-    <t>XKRX:005935</t>
-  </si>
-  <si>
-    <t>LSE:HLMA</t>
-  </si>
-  <si>
-    <t>TSX:EFN</t>
-  </si>
-  <si>
-    <t>XKRX:105560</t>
-  </si>
-  <si>
-    <t>TSX:KNT</t>
-  </si>
-  <si>
-    <t>TSX:GSY</t>
-  </si>
-  <si>
-    <t>TSX:GDI</t>
-  </si>
-  <si>
-    <t>TSX:PIF</t>
-  </si>
-  <si>
-    <t>TSX:PET</t>
-  </si>
-  <si>
-    <t>TSX:NOA</t>
-  </si>
-  <si>
-    <t>XAMS:HEIA</t>
-  </si>
-  <si>
-    <t>LSE:LLOY</t>
-  </si>
-  <si>
-    <t>XMAD:GRF</t>
-  </si>
-  <si>
-    <t>TSX:FOM</t>
-  </si>
-  <si>
-    <t>TSXV:ZDC</t>
-  </si>
-  <si>
-    <t>TSX:EQB</t>
-  </si>
-  <si>
-    <t>TSE:6723</t>
-  </si>
-  <si>
-    <t>XPAR:ALO</t>
-  </si>
-  <si>
-    <t>XTER:FME</t>
-  </si>
-  <si>
-    <t>XTER:CON</t>
-  </si>
-  <si>
-    <t>XPAR:BNP</t>
-  </si>
-  <si>
-    <t>TSX:WPM</t>
-  </si>
-  <si>
-    <t>TSX:FSF.TO</t>
-  </si>
-  <si>
-    <t>TSX:MTY</t>
-  </si>
-  <si>
-    <t>TSX:MX</t>
-  </si>
-  <si>
-    <t>LSE:RR.</t>
-  </si>
-  <si>
-    <t>XTER:IFX</t>
-  </si>
-  <si>
-    <t>XAMS:AKZA</t>
-  </si>
-  <si>
-    <t>TSX:TWC</t>
-  </si>
-  <si>
-    <t>XPAR:SGO</t>
-  </si>
-  <si>
-    <t>XAMS:PHIA</t>
-  </si>
-  <si>
-    <t>HKSE:09992</t>
-  </si>
-  <si>
-    <t>XSWX:BARN</t>
-  </si>
-  <si>
-    <t>LSE:IAG</t>
-  </si>
-  <si>
-    <t>XAMS:ALLFG</t>
-  </si>
-  <si>
-    <t>XMAD:CASH</t>
-  </si>
-  <si>
-    <t>XMAD:REP</t>
-  </si>
-  <si>
-    <t>TSX:DC.A</t>
-  </si>
-  <si>
-    <t>XMAD:DIA</t>
-  </si>
-  <si>
-    <t>XMAD:MEL</t>
-  </si>
-  <si>
-    <t>XMAD:MCM</t>
-  </si>
-  <si>
-    <t>XLIS:SNC</t>
-  </si>
-  <si>
-    <t>TSX:MRC</t>
-  </si>
-  <si>
-    <t>TSX:ESI</t>
-  </si>
-  <si>
-    <t>TSXV:RET</t>
-  </si>
-  <si>
-    <t>TSX:IFP</t>
-  </si>
-  <si>
-    <t>TSX:LNR</t>
-  </si>
-  <si>
-    <t>LSE:TLW</t>
-  </si>
-  <si>
-    <t>XMAD:TUB</t>
-  </si>
-  <si>
-    <t>XMAD:LDA</t>
-  </si>
-  <si>
-    <t>TSE:7189</t>
-  </si>
-  <si>
-    <t>TSE:1893</t>
-  </si>
-  <si>
-    <t>TSE:8058</t>
-  </si>
-  <si>
-    <t>TSE:8630</t>
-  </si>
-  <si>
-    <t>TSE:9984</t>
-  </si>
-  <si>
-    <t>OSL:BWE</t>
-  </si>
-  <si>
-    <t>TSE:6098</t>
-  </si>
-  <si>
-    <t>TSE:3382</t>
-  </si>
-  <si>
-    <t>LSE:CURY</t>
-  </si>
-  <si>
-    <t>MIL:DANR</t>
-  </si>
-  <si>
-    <t>OSL:BWO</t>
-  </si>
-  <si>
-    <t>TSX:RBA</t>
-  </si>
-  <si>
-    <t>TSX:CEU</t>
-  </si>
-  <si>
-    <t>TSX:BDGI</t>
-  </si>
-  <si>
-    <t>TSX:III</t>
-  </si>
-  <si>
-    <t>LSE:ATYM</t>
-  </si>
-  <si>
-    <t>TSX:OR</t>
-  </si>
-  <si>
-    <t>XTER:DTG</t>
-  </si>
-  <si>
-    <t>TSX:QSR</t>
-  </si>
-  <si>
-    <t>TSX:ATS</t>
-  </si>
-  <si>
-    <t>TSXV:TOI</t>
-  </si>
-  <si>
-    <t>XPAR:AI</t>
-  </si>
-  <si>
-    <t>TSX:TIH</t>
-  </si>
-  <si>
-    <t>XAMS:ASML</t>
-  </si>
-  <si>
-    <t>TSX:BIP.UN</t>
-  </si>
-  <si>
-    <t>LSE:REL</t>
-  </si>
-  <si>
-    <t>XTER:ALV</t>
-  </si>
-  <si>
-    <t>MIL:FBK</t>
-  </si>
-  <si>
-    <t>LSE:SHEL</t>
-  </si>
-  <si>
-    <t>OSTO:INVE B</t>
-  </si>
-  <si>
-    <t>TSE:9678</t>
-  </si>
-  <si>
-    <t>TSE:6284</t>
-  </si>
-  <si>
-    <t>HKSE:03690</t>
-  </si>
-  <si>
-    <t>HKSE:02318</t>
-  </si>
-  <si>
-    <t>HKSE:09618</t>
-  </si>
-  <si>
-    <t>HKSE:00939</t>
-  </si>
-  <si>
-    <t>TSX:MRU</t>
-  </si>
-  <si>
-    <t>TSX:PPL</t>
-  </si>
-  <si>
-    <t>HKSE:01336</t>
-  </si>
-  <si>
-    <t>HKSE:02628</t>
-  </si>
-  <si>
-    <t>BOM:543333</t>
-  </si>
-  <si>
-    <t>BSP:SBFG3</t>
-  </si>
-  <si>
-    <t>TPE:2383</t>
-  </si>
-  <si>
-    <t>BOM:532497</t>
-  </si>
-  <si>
-    <t>BSP:YDUQ3</t>
-  </si>
-  <si>
-    <t>JSE:WBC</t>
-  </si>
-  <si>
-    <t>BOM:541153</t>
-  </si>
-  <si>
-    <t>XKRX:145020</t>
-  </si>
-  <si>
-    <t>TSE:8801</t>
-  </si>
-  <si>
-    <t>TSE:2802</t>
-  </si>
-  <si>
-    <t>TSE:8035</t>
-  </si>
-  <si>
-    <t>TSE:6701</t>
-  </si>
-  <si>
-    <t>BOM:543320</t>
-  </si>
-  <si>
-    <t>TSX:IAG</t>
-  </si>
-  <si>
-    <t>TSX:ALA</t>
-  </si>
-  <si>
-    <t>NSE:BHARTIARTL</t>
-  </si>
-  <si>
-    <t>TSX:FTT</t>
-  </si>
-  <si>
-    <t>TSX:TOU</t>
-  </si>
-  <si>
-    <t>TSE:7821</t>
-  </si>
-  <si>
-    <t>TSE:6332</t>
-  </si>
-  <si>
-    <t>TSE:6622</t>
-  </si>
-  <si>
-    <t>TSE:8923</t>
-  </si>
-  <si>
-    <t>TSE:8336</t>
-  </si>
-  <si>
-    <t>TSE:8876</t>
-  </si>
-  <si>
-    <t>TSX:JWEL</t>
-  </si>
-  <si>
-    <t>TSX:CIGI</t>
-  </si>
-  <si>
-    <t>TSX:MEQ</t>
-  </si>
-  <si>
-    <t>TSX:AND</t>
-  </si>
-  <si>
-    <t>TSX:STN</t>
-  </si>
-  <si>
-    <t>TSX:SJ</t>
-  </si>
-  <si>
-    <t>TSX:TVK</t>
-  </si>
-  <si>
-    <t>MIL:AZM</t>
-  </si>
-  <si>
-    <t>XKRX:139130</t>
-  </si>
-  <si>
-    <t>OCSE:ISS</t>
-  </si>
-  <si>
-    <t>MIL:CPR</t>
-  </si>
-  <si>
-    <t>XTER:LXS</t>
-  </si>
-  <si>
-    <t>HKSE:01128</t>
-  </si>
-  <si>
-    <t>TSXV:PNG</t>
-  </si>
-  <si>
-    <t>XTER:DUE</t>
-  </si>
-  <si>
-    <t>XPAR:OR</t>
-  </si>
-  <si>
-    <t>LSE:RMV</t>
-  </si>
-  <si>
-    <t>TSE:5344</t>
-  </si>
-  <si>
-    <t>XKRX:030190</t>
-  </si>
-  <si>
-    <t>XPAR:GTT</t>
-  </si>
-  <si>
-    <t>TSE:4733</t>
-  </si>
-  <si>
-    <t>XTER:EVD</t>
-  </si>
-  <si>
-    <t>LSE:DSCV</t>
-  </si>
-  <si>
-    <t>LSE:AT.</t>
-  </si>
-  <si>
-    <t>TSE:6947</t>
-  </si>
-  <si>
-    <t>TSX:SU</t>
-  </si>
-  <si>
-    <t>TSX:CVE</t>
-  </si>
-  <si>
-    <t>TSX:POW</t>
-  </si>
-  <si>
-    <t>XAMS:JDEP</t>
-  </si>
-  <si>
-    <t>XSWX:BAER</t>
-  </si>
-  <si>
-    <t>XKRX:138930</t>
-  </si>
-  <si>
-    <t>OSL:ATEA</t>
-  </si>
-  <si>
-    <t>TSE:8308</t>
-  </si>
-  <si>
-    <t>TSE:7974</t>
-  </si>
-  <si>
-    <t>XAMS:PRX</t>
-  </si>
-  <si>
-    <t>TSE:7203</t>
-  </si>
-  <si>
-    <t>TSX:CS</t>
-  </si>
-  <si>
-    <t>TSE:6503</t>
-  </si>
-  <si>
-    <t>TSE:8725</t>
-  </si>
-  <si>
-    <t>XTER:BMW</t>
-  </si>
-  <si>
-    <t>XTER:DBK</t>
-  </si>
-  <si>
-    <t>XPAR:SAF</t>
-  </si>
-  <si>
-    <t>SGX:U11</t>
-  </si>
-  <si>
-    <t>XPAR:TTE</t>
-  </si>
-  <si>
-    <t>TSX:NA</t>
-  </si>
-  <si>
-    <t>LSE:BIRG</t>
-  </si>
-  <si>
-    <t>TSE:7270</t>
-  </si>
-  <si>
-    <t>MIL:BZU</t>
+    <t>MIL:SOL</t>
   </si>
   <si>
     <t>HKSE:00941</t>
   </si>
   <si>
-    <t>HKSE:02899</t>
-  </si>
-  <si>
-    <t>MIL:SOL</t>
+    <t>TSE:3923</t>
   </si>
   <si>
     <t>HKSE:00807</t>
   </si>
   <si>
+    <t>HKSE:01810</t>
+  </si>
+  <si>
+    <t>TPE:2454</t>
+  </si>
+  <si>
     <t>TSE:3064</t>
   </si>
   <si>
-    <t>HKSE:01810</t>
-  </si>
-  <si>
-    <t>TPE:2454</t>
-  </si>
-  <si>
-    <t>SZSE:300750</t>
+    <t>NSE:CHOLAHLDNG</t>
   </si>
   <si>
     <t>TSE:6532</t>
   </si>
   <si>
-    <t>XTER:G24</t>
-  </si>
-  <si>
-    <t>NSE:CHOLAHLDNG</t>
+    <t>TSE:6544</t>
+  </si>
+  <si>
+    <t>LSE:AJB</t>
+  </si>
+  <si>
+    <t>LSE:DPLM</t>
   </si>
   <si>
     <t>TSE:7649</t>
-  </si>
-  <si>
-    <t>LSE:AJB</t>
-  </si>
-  <si>
-    <t>ASX:TNE</t>
-  </si>
-  <si>
-    <t>LSE:SCT</t>
   </si>
   <si>
     <t>XKRX:005385</t>
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1254,7 +1257,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1526,7 +1529,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2918,6 +2921,14 @@
         <v>231</v>
       </c>
       <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
         <v>1</v>
       </c>
     </row>
